--- a/ocms/src/test/resources/TestData/UserManagementData.xlsx
+++ b/ocms/src/test/resources/TestData/UserManagementData.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A83304-AA3E-4A30-A152-D02904EBBDF1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
     <sheet name="Edit" sheetId="4" r:id="rId2"/>
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:J20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Delete Reason</t>
   </si>
@@ -33,19 +33,31 @@
     <t>User ID</t>
   </si>
   <si>
-    <t>Tetherfi\Akshadmin</t>
-  </si>
-  <si>
     <t>Modify Reason</t>
   </si>
   <si>
     <t>Modified</t>
   </si>
+  <si>
+    <t>BENGTETH\PALAKADMIN</t>
+  </si>
+  <si>
+    <t>Updated User ID</t>
+  </si>
+  <si>
+    <t>BENGTETH\PALAKADMINUpdated</t>
+  </si>
+  <si>
+    <t>BENGTEth\</t>
+  </si>
+  <si>
+    <t>Palak</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -147,7 +159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -182,7 +194,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -359,18 +371,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,7 +397,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -395,33 +417,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5134D6-86B5-4B72-B106-64F4D3AE5818}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -430,16 +459,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABD6B37-7362-47B2-8F62-99134BB2493A}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -453,10 +482,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/UserManagementData.xlsx
+++ b/ocms/src/test/resources/TestData/UserManagementData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14670" windowHeight="4575" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J20"/>
+  <oleSize ref="A1:L13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -371,7 +371,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -382,7 +382,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/UserManagementData.xlsx
+++ b/ocms/src/test/resources/TestData/UserManagementData.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14670" windowHeight="4575" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14670" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
     <sheet name="Edit" sheetId="4" r:id="rId2"/>
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
+    <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L13"/>
+  <oleSize ref="A1:K13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Delete Reason</t>
   </si>
@@ -52,6 +53,28 @@
   </si>
   <si>
     <t>Palak</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>SELECT USER_ID as 'User Id', LAST_CHANGED_BY as 'Last Changed By', Substring(LAST_CHANGED_ON,11,18) as 'Last Changed On'
+ FROM CMM_USER_MANAGEMENT WHERE FUNCTIONALITY='UserManagement';</t>
+  </si>
+  <si>
+    <t>Bengteth</t>
+  </si>
+  <si>
+    <t>BENGTETH\</t>
+  </si>
+  <si>
+    <t>BENGTETH\PALAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Bengteth\Palak</t>
   </si>
 </sst>
 </file>
@@ -94,11 +117,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,7 +398,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -379,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,6 +437,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -418,15 +450,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -453,6 +485,50 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -460,10 +536,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,15 +558,38 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="86.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/UserManagementData.xlsx
+++ b/ocms/src/test/resources/TestData/UserManagementData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14670" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16965" windowHeight="4575" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K13"/>
+  <oleSize ref="A1:N13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -398,7 +398,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -408,7 +408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/UserManagementData.xlsx
+++ b/ocms/src/test/resources/TestData/UserManagementData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16965" windowHeight="4575" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16965" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,6 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Delete Reason</t>
   </si>
@@ -75,6 +74,9 @@
   </si>
   <si>
     <t>Bengteth\Palak</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
   </si>
 </sst>
 </file>
@@ -398,7 +400,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -406,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,6 +442,11 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -538,7 +545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/UserManagementData.xlsx
+++ b/ocms/src/test/resources/TestData/UserManagementData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16965" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:O24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>Delete Reason</t>
   </si>
@@ -61,9 +62,6 @@
  FROM CMM_USER_MANAGEMENT WHERE FUNCTIONALITY='UserManagement';</t>
   </si>
   <si>
-    <t>Bengteth</t>
-  </si>
-  <si>
     <t>BENGTETH\</t>
   </si>
   <si>
@@ -77,6 +75,12 @@
   </si>
   <si>
     <t>ADMIN</t>
+  </si>
+  <si>
+    <t>BENGTETH</t>
+  </si>
+  <si>
+    <t>BENGTETH\SANTOSHADMIN</t>
   </si>
 </sst>
 </file>
@@ -119,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -127,7 +131,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,12 +444,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -460,7 +463,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,8 +499,8 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
+      <c r="B3" t="s">
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -508,7 +511,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -519,10 +522,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -530,7 +533,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>

--- a/ocms/src/test/resources/TestData/UserManagementData.xlsx
+++ b/ocms/src/test/resources/TestData/UserManagementData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14415" windowHeight="6615"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O24"/>
+  <oleSize ref="A1:K20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -403,7 +403,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
